--- a/docs/LTA1_C/LTA1_C_12.08.24_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_12.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731792449.9573975</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731792453.5240734</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731792449.9573975.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731792453.5240734.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.63</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.45</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.8199999999999932</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -591,95 +613,107 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731792453.6506639</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731792453.6506639.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731792453.6506639.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>278.5</v>
       </c>
-      <c r="J4" t="n">
-        <v>278.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>280.15</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1.649999999999977</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731792456.6091812</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731792459.2937703</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792456.6091812.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792459.2937703.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.63</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>278.45</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.8199999999999932</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -687,51 +721,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731792459.3975675</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731792461.5828118</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792459.3975675.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792461.5828118.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>278.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>278.48</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.01999999999998181</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731792461.5957773</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731792465.605524</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792461.5957773.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731792465.605524.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>278.48</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>279.45</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.9699999999999704</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -791,95 +837,107 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731792465.7874196</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731792465.7874196.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731792465.7874196.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>279.54</v>
       </c>
-      <c r="J8" t="n">
-        <v>279.54</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>281.03</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-1.489999999999952</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731792468.941134</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731792469.8344162</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792468.941134.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792469.8344162.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>127.78</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>128.32</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.539999999999992</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -887,51 +945,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731792470.1498337</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731792472.904535</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792470.1498337.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731792472.904535.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>127.76</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>127.89</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -939,95 +1003,107 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731792473.0748646</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731792473.0748646.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731792473.0748646.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>128.15</v>
       </c>
-      <c r="J11" t="n">
-        <v>128.15</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>128.91</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.7599999999999909</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731792476.3063335</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731792476.923429</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792476.3063335.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792476.923429.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6367.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6387</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>19.5</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1035,51 +1111,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731792477.1672523</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731792480.4943926</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792477.1672523.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731792480.4943926.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6367.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6358</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-9.5</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -1087,95 +1169,107 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731792480.6507747</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731792480.6507747.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731792480.6507747.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6375.5</v>
       </c>
-      <c r="J14" t="n">
-        <v>6375.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>6429</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-53.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731792484.1977887</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731792487.3416517</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792484.1977887.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731792487.3416517.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>500.35</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>499.45</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.9000000000000341</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -1183,95 +1277,107 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731792489.319998</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731792489.319998.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731792489.319998.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>499.5</v>
       </c>
-      <c r="J16" t="n">
-        <v>499.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>501.85</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-2.350000000000023</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731792490.6485627</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731792494.3081536</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731792490.6485627.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731792494.3081536.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>224.75</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>225.42</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.6699999999999875</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -1279,95 +1385,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731792494.4291496</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731792494.4291496.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731792494.4291496.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>225.68</v>
       </c>
-      <c r="J18" t="n">
-        <v>225.68</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>226.62</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.9399999999999977</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731792497.766149</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731792498.6057153</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792497.766149.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731792498.6057153.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1007.2</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1014.6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>7.399999999999977</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -1375,95 +1493,107 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731792501.4007838</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731792501.4007838.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731792501.4007838.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1016.8</v>
       </c>
-      <c r="J20" t="n">
-        <v>1016.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1030.6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-13.79999999999995</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-1.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731792504.5656452</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731792504.8014371</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/CNY1731792504.5656452.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/CNY1731792504.8014371.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>11.954</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>11.934</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.02000000000000135</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1471,51 +1601,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731792505.1169484</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731792507.076202</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/CNY1731792505.1169484.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/CNY1731792507.076202.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>11.926</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>11.935</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.009000000000000341</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1523,95 +1659,107 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731792508.1252797</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731792508.1252797.png</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731792508.1252797.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>11.953</v>
       </c>
-      <c r="J23" t="n">
-        <v>11.953</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>12.009</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.05600000000000094</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731792511.858148</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731792512.871573</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792511.858148.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731792512.871573.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>123.66</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>123.32</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1619,95 +1767,107 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731792514.471989</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731792514.471989.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731792514.471989.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>123.84</v>
       </c>
-      <c r="J25" t="n">
-        <v>123.84</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-1.159999999999997</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.9400000000000001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731792518.317346</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731792519.6539657</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792518.317346.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731792519.6539657.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>158.84</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>159.34</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.5</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1715,95 +1875,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731792521.394901</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731792521.394901.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731792521.394901.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>160.1</v>
       </c>
-      <c r="J27" t="n">
-        <v>160.1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>162.3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-2.200000000000017</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-1.37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731792524.8900964</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731792526.0087745</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792524.8900964.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731792526.0087745.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>49</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>49.23</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.2299999999999969</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -1811,95 +1983,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731792528.5306902</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731792528.5306902.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731792528.5306902.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>49.4</v>
       </c>
-      <c r="J29" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>50.225</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.8250000000000028</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-1.67</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731792531.622195</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731792535.5282693</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792531.622195.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731792535.5282693.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1368.2</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1373.8</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>5.599999999999909</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1907,95 +2091,107 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731792535.632839</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731792535.632839.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731792535.632839.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1377.6</v>
       </c>
-      <c r="J31" t="n">
-        <v>1377.6</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1387.6</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-10</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.73</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731792540.3301306</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731792541.3141215</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792540.3301306.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792541.3141215.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>60.64</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>61.05</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.4099999999999966</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.6799999999999999</v>
       </c>
     </row>
@@ -2003,51 +2199,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731792543.3692076</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731792544.1328487</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792543.3692076.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731792544.1328487.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>61.19</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>60.94</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.25</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -2055,95 +2257,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731792545.3275547</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731792545.3275547.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731792545.3275547.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>61.31</v>
       </c>
-      <c r="J34" t="n">
-        <v>61.31</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>61.52</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.2100000000000009</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731792545.9777198</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731792546.227517</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731792545.9777198.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731792546.227517.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>96.48999999999999</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>96.81999999999999</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.3299999999999983</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2151,51 +2365,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731792546.7012596</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731792546.8507566</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731792546.7012596.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731792546.8507566.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>97.11</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>96.73999999999999</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.3700000000000045</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -2203,51 +2423,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731792547.0091093</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731792547.370514</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731792547.0091093.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731792547.370514.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>97.12</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>96.81999999999999</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -2255,95 +2481,107 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731792548.921603</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731792548.921603.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731792548.921603.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>97.17</v>
       </c>
-      <c r="J38" t="n">
-        <v>97.17</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>98.26000000000001</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-1.090000000000003</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-1.12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731792553.4459305</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731792558.007937</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792553.4459305.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/SELG1731792558.007937.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>55.3</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>55.51</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.2100000000000009</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -2351,95 +2589,107 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731792558.099912</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731792558.099912.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731792558.099912.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>55.6</v>
       </c>
-      <c r="J40" t="n">
-        <v>55.6</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>55.97</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.3699999999999974</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731792560.3065026</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731792564.2498846</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792560.3065026.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792564.2498846.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>150.52</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>150.02</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -2447,51 +2697,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731792564.4321628</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731792564.5372427</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792564.4321628.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731792564.5372427.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>150.66</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>149.82</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.8400000000000034</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -2499,95 +2755,107 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731792564.5781374</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731792564.5781374.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731792564.5781374.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>150.86</v>
       </c>
-      <c r="J43" t="n">
-        <v>150.86</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>153.52</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-2.659999999999997</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-1.76</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731792566.8028965</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731792570.4678025</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731792566.8028965.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731792570.4678025.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>0.2936</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>0.2955</v>
       </c>
-      <c r="K44" t="n">
-        <v>0.001900000000000013</v>
-      </c>
-      <c r="L44" t="n">
+      <c r="M44" t="n">
+        <v>0.001899999999999957</v>
+      </c>
+      <c r="N44" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -2595,95 +2863,107 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731792570.9738252</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731792570.9738252.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731792570.9738252.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>0.2962</v>
       </c>
-      <c r="J45" t="n">
-        <v>0.2962</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>0.2988</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.002599999999999991</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.88</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731792573.2753499</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731792576.8401134</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792573.2753499.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731792576.8401134.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>19.825</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>19.941</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.1159999999999997</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.59</v>
       </c>
     </row>
@@ -2691,139 +2971,157 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731792577.089914</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731792577.089914.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731792577.089914.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>19.965</v>
       </c>
-      <c r="J47" t="n">
-        <v>19.965</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>20.035</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731792583.2785206</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731792583.2785206.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731792583.2785206.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>667.35</v>
       </c>
-      <c r="J48" t="n">
-        <v>667.35</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>674.45</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-7.100000000000023</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-1.06</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731792587.042177</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731792587.6882505</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731792587.042177.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731792587.6882505.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>149.21</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>150.15</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.9399999999999977</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -2831,51 +3129,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731792588.3545992</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731792591.0826497</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731792588.3545992.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731792591.0826497.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>149.08</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>149.91</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.8299999999999841</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -2883,87 +3187,99 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731792591.2347584</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731792591.2347584.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731792591.2347584.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>150.18</v>
       </c>
-      <c r="J51" t="n">
-        <v>150.18</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>153.96</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-3.780000000000001</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-2.52</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731792594.083552</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731792594.083552.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731792594.083552.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>0.2937</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>0.2937</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3025,19 +3341,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.000000000000014</v>
+        <v>-0.0899999999999892</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2500000000000036</v>
+        <v>-0.0224999999999973</v>
       </c>
       <c r="E2" t="n">
-        <v>1.03</v>
+        <v>-0.08999999999999986</v>
       </c>
       <c r="F2" t="n">
-        <v>0.26</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="3">
@@ -3047,19 +3363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.809999999999945</v>
+        <v>0.3199999999999932</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4524999999999864</v>
+        <v>0.07999999999999829</v>
       </c>
       <c r="E3" t="n">
-        <v>0.66</v>
+        <v>0.13</v>
       </c>
       <c r="F3" t="n">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -3069,19 +3385,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.769999999999982</v>
+        <v>-2.010000000000019</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.589999999999994</v>
+        <v>-0.6700000000000065</v>
       </c>
       <c r="E4" t="n">
-        <v>1.19</v>
+        <v>-1.33</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="5">
@@ -3091,19 +3407,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02900000000000169</v>
+        <v>-0.02699999999999925</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009666666666667231</v>
+        <v>-0.00899999999999975</v>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>-0.22</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3113,19 +3429,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3400000000000034</v>
+        <v>-2.319999999999993</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1133333333333345</v>
+        <v>-0.7733333333333311</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2299999999999999</v>
+        <v>-1.53</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="7">
@@ -3135,19 +3451,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6699999999999875</v>
+        <v>-0.09000000000000341</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2233333333333292</v>
+        <v>-0.03000000000000114</v>
       </c>
       <c r="E7" t="n">
-        <v>0.52</v>
+        <v>-0.06999999999999995</v>
       </c>
       <c r="F7" t="n">
-        <v>0.17</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="8">
@@ -3157,19 +3473,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>-43.5</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>3.333333333333333</v>
+        <v>-14.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.16</v>
+        <v>-0.6799999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="9">
@@ -3179,19 +3495,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.6599999999999966</v>
+        <v>0.4499999999999957</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2199999999999989</v>
+        <v>0.1499999999999986</v>
       </c>
       <c r="E9" t="n">
-        <v>1.09</v>
+        <v>0.75</v>
       </c>
       <c r="F9" t="n">
-        <v>0.36</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10">
@@ -3201,19 +3517,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.399999999999977</v>
+        <v>-6.399999999999977</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>3.699999999999989</v>
+        <v>-3.199999999999989</v>
       </c>
       <c r="E10" t="n">
-        <v>0.73</v>
+        <v>-0.6299999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.36</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="11">
@@ -3223,19 +3539,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2100000000000009</v>
+        <v>-0.1599999999999966</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1050000000000004</v>
+        <v>-0.07999999999999829</v>
       </c>
       <c r="E11" t="n">
-        <v>0.38</v>
+        <v>-0.29</v>
       </c>
       <c r="F11" t="n">
-        <v>0.19</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="12">
@@ -3245,19 +3561,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8199999999999932</v>
+        <v>-0.8299999999999841</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4099999999999966</v>
+        <v>-0.414999999999992</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3</v>
+        <v>-0.29</v>
       </c>
       <c r="F12" t="n">
-        <v>0.15</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="13">
@@ -3267,19 +3583,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.9000000000000341</v>
+        <v>-3.250000000000057</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4500000000000171</v>
+        <v>-1.625000000000028</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.18</v>
+        <v>-0.65</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.09</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="14">
@@ -3289,19 +3605,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1159999999999997</v>
+        <v>0.04599999999999937</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05799999999999983</v>
+        <v>0.02299999999999969</v>
       </c>
       <c r="E14" t="n">
-        <v>0.59</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="15">
@@ -3311,19 +3627,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5</v>
+        <v>-1.700000000000017</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25</v>
+        <v>-0.8500000000000085</v>
       </c>
       <c r="E15" t="n">
-        <v>0.31</v>
+        <v>-1.06</v>
       </c>
       <c r="F15" t="n">
-        <v>0.16</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="16">
@@ -3333,19 +3649,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001900000000000013</v>
+        <v>-0.0007000000000000339</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0009500000000000064</v>
+        <v>-0.000350000000000017</v>
       </c>
       <c r="E16" t="n">
-        <v>0.65</v>
+        <v>-0.23</v>
       </c>
       <c r="F16" t="n">
-        <v>0.32</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="17">
@@ -3355,19 +3671,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6699999999999875</v>
+        <v>-0.2700000000000102</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3349999999999937</v>
+        <v>-0.1350000000000051</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>-0.12</v>
       </c>
       <c r="F17" t="n">
-        <v>0.15</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="18">
@@ -3377,19 +3693,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2299999999999969</v>
+        <v>-0.595000000000006</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1149999999999984</v>
+        <v>-0.297500000000003</v>
       </c>
       <c r="E18" t="n">
-        <v>0.47</v>
+        <v>-1.2</v>
       </c>
       <c r="F18" t="n">
-        <v>0.24</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="19">
@@ -3399,19 +3715,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3400000000000034</v>
+        <v>-0.8199999999999932</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1700000000000017</v>
+        <v>-0.4099999999999966</v>
       </c>
       <c r="E19" t="n">
-        <v>0.27</v>
+        <v>-0.67</v>
       </c>
       <c r="F19" t="n">
-        <v>0.14</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="20">
@@ -3421,19 +3737,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.599999999999909</v>
+        <v>-4.400000000000091</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>2.799999999999955</v>
+        <v>-2.200000000000045</v>
       </c>
       <c r="E20" t="n">
-        <v>0.41</v>
+        <v>-0.32</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="21">
@@ -3443,19 +3759,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-7.100000000000023</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-7.100000000000023</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-1.06</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="22">
